--- a/biology/Médecine/Pakize_Tarzi/Pakize_Tarzi.xlsx
+++ b/biology/Médecine/Pakize_Tarzi/Pakize_Tarzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pakize İzzet Tarzi, née en 1909[1] ou en 1910[2] à Alep dans l'Empire ottoman, et morte en 2004 à Istanbul en Turquie, est une médecin turc : elle est la première femme gynécologue de son pays[1]. Elle est la fille de l'inspecteur général (en) de la Ziraat Bankası à Alep. En 1918, la famille déménage à Adana en Turquie, lorsque les britanniques envahissent la Syrie, puis à Konya, quand les français prennent le contrôle d'Adana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pakize İzzet Tarzi, née en 1909 ou en 1910 à Alep dans l'Empire ottoman, et morte en 2004 à Istanbul en Turquie, est une médecin turc : elle est la première femme gynécologue de son pays. Elle est la fille de l'inspecteur général (en) de la Ziraat Bankası à Alep. En 1918, la famille déménage à Adana en Turquie, lorsque les britanniques envahissent la Syrie, puis à Konya, quand les français prennent le contrôle d'Adana.
 Elle fait ses études à Sörler Okulu puis elle choisit la médecine alors qu'elle est au collège américain Bursa pour filles (tr). Elle achève ses études en 1932.
-Le 21 juillet 1949, elle ouvre la première clinique pour femmes[2], Pakize İ. Tarzi Kliniği, à Şişli, district d'Istanbul. 
-Elle est également la première femme à traverser le Bosphore à la nage[2].
+Le 21 juillet 1949, elle ouvre la première clinique pour femmes, Pakize İ. Tarzi Kliniği, à Şişli, district d'Istanbul. 
+Elle est également la première femme à traverser le Bosphore à la nage.
 En 1935, elle se marie avec Fettah Tarzi, neveu du roi afghan Amanullah Khan. Leur fille, Zeynep Tarzi est l'épouse du prince ottoman Osman Ertuğrul Osmanoğlu.
 </t>
         </is>
